--- a/论文用图表/表4.2：复杂模型的R2.xlsx
+++ b/论文用图表/表4.2：复杂模型的R2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyhan\Desktop\毕业论文\中国市场\论文用图表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39A3EC9-9850-4B8F-805B-C2ADDBA0BAFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8416373C-17CB-48EF-AD14-7A2CFC3DC63B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>R_square</t>
   </si>
@@ -46,27 +46,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Panel A: 迭代延展窗口估计</t>
+    <t>Ridge</t>
+  </si>
+  <si>
+    <t>LASSO</t>
+  </si>
+  <si>
+    <t>Elastic Net</t>
+  </si>
+  <si>
+    <t>LARS</t>
+  </si>
+  <si>
+    <t>Kitchen Sink</t>
+  </si>
+  <si>
+    <t>TO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Panel B: 平均窗口估计</t>
+    <t>Panel A: 最优的单变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ridge</t>
-  </si>
-  <si>
-    <t>LASSO</t>
-  </si>
-  <si>
-    <t>Elastic Net</t>
-  </si>
-  <si>
-    <t>LARS</t>
-  </si>
-  <si>
-    <t>Kitchen Sink</t>
+    <t>Panel B: 迭代延展窗口估计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panel C: 平均窗口估计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC</t>
   </si>
 </sst>
 </file>
@@ -107,30 +118,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -142,30 +135,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,193 +457,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="H7:J24"/>
+  <dimension ref="G7:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="8:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H8" s="1" t="s">
+    <row r="7" spans="7:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G8" s="3"/>
+      <c r="H8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H9" s="3" t="s">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G9" s="3"/>
+      <c r="H9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G10" s="3"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G11" s="3"/>
+      <c r="H11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G12" s="3"/>
+      <c r="H12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G13" s="3"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G14" s="3"/>
+      <c r="H14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-5.3765209016763498</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.954547962995004</v>
+      </c>
+      <c r="L14" s="9">
+        <v>-5.3765209016763498</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0.954547962995004</v>
+      </c>
+    </row>
+    <row r="15" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G15" s="3"/>
+      <c r="H15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H11" s="7" t="s">
+      <c r="I15" s="1">
+        <v>1.6489594210957401</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.7079152396613799</v>
+      </c>
+      <c r="L15" s="9">
+        <v>1.6489594210957401</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1.7079152396613799</v>
+      </c>
+    </row>
+    <row r="16" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G16" s="3"/>
+      <c r="H16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2.04448400814774</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.8092900488955801</v>
+      </c>
+      <c r="L16" s="9">
+        <v>2.04448400814774</v>
+      </c>
+      <c r="M16" s="9">
+        <v>1.8092900488955801</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G17" s="3"/>
+      <c r="H17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="5">
-        <v>2.2654225865640401</v>
-      </c>
-      <c r="J11" s="5">
-        <v>2.0878871330593598</v>
-      </c>
-    </row>
-    <row r="12" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H12" s="7" t="s">
+      <c r="I17" s="1">
+        <v>2.13703845004133</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.83822383874177</v>
+      </c>
+      <c r="L17" s="9">
+        <v>2.13703845004133</v>
+      </c>
+      <c r="M17" s="9">
+        <v>1.83822383874177</v>
+      </c>
+    </row>
+    <row r="18" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G18" s="3"/>
+      <c r="H18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="5">
-        <v>2.83788895480017</v>
-      </c>
-      <c r="J12" s="5">
-        <v>2.0342972127945398</v>
-      </c>
-    </row>
-    <row r="13" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H13" s="7" t="s">
+      <c r="I18" s="1">
+        <v>-0.43731567890130602</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.86142232012092701</v>
+      </c>
+      <c r="L18" s="9">
+        <v>-0.43731567890130602</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0.86142232012092701</v>
+      </c>
+    </row>
+    <row r="19" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G19" s="3"/>
+      <c r="H19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-2.8163434954822897</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.75951531806611505</v>
+      </c>
+      <c r="L19" s="9">
+        <v>-2.8163434954822897</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0.75951531806611505</v>
+      </c>
+    </row>
+    <row r="20" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G20" s="3"/>
+      <c r="H20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1.5966780432398</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.5842492402050199</v>
+      </c>
+      <c r="L20" s="9">
+        <v>1.5966780432398</v>
+      </c>
+      <c r="M20" s="9">
+        <v>1.5842492402050199</v>
+      </c>
+    </row>
+    <row r="21" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G21" s="3"/>
+      <c r="H21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G22" s="3"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G23" s="3"/>
+      <c r="H23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="5">
-        <v>2.88046007181805</v>
-      </c>
-      <c r="J13" s="5">
-        <v>2.0478155987383602</v>
-      </c>
-    </row>
-    <row r="14" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="5">
-        <v>-0.42539822939990896</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0.31971601610716899</v>
-      </c>
-    </row>
-    <row r="15" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H15" s="7" t="s">
+      <c r="I23" s="1">
+        <v>-8.1143510053693593</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1.5953864269900599</v>
+      </c>
+      <c r="L23" s="9">
+        <v>-8.1143510053693593</v>
+      </c>
+      <c r="M23" s="9">
+        <v>1.5953864269900599</v>
+      </c>
+    </row>
+    <row r="24" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G24" s="3"/>
+      <c r="H24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.70232731354297095</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1.88053572515377</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0.70232731354297095</v>
+      </c>
+      <c r="M24" s="9">
+        <v>1.88053572515377</v>
+      </c>
+    </row>
+    <row r="25" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G25" s="3"/>
+      <c r="H25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2.47687481492023</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2.02619868879373</v>
+      </c>
+      <c r="L25" s="9">
+        <v>2.47687481492023</v>
+      </c>
+      <c r="M25" s="9">
+        <v>2.02619868879373</v>
+      </c>
+    </row>
+    <row r="26" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G26" s="3"/>
+      <c r="H26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2.61077288641942</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2.03360384690103</v>
+      </c>
+      <c r="L26" s="9">
+        <v>2.61077288641942</v>
+      </c>
+      <c r="M26" s="9">
+        <v>2.03360384690103</v>
+      </c>
+    </row>
+    <row r="27" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G27" s="3"/>
+      <c r="H27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.65495029655182602</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1.2099193309049801</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0.65495029655182602</v>
+      </c>
+      <c r="M27" s="9">
+        <v>1.2099193309049801</v>
+      </c>
+    </row>
+    <row r="28" spans="7:13" x14ac:dyDescent="0.4">
+      <c r="G28" s="3"/>
+      <c r="H28" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I15" s="5">
-        <v>-2.93021015586754</v>
-      </c>
-      <c r="J15" s="5">
-        <v>1.25868127440919</v>
-      </c>
-    </row>
-    <row r="16" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="5">
-        <v>-6.0098536116860402</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0.90528735792147397</v>
-      </c>
-    </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="5">
-        <v>3.8218699904659701</v>
-      </c>
-      <c r="J19" s="5">
-        <v>2.6798914257856499</v>
-      </c>
-    </row>
-    <row r="20" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="5">
-        <v>3.8125317644174199</v>
-      </c>
-      <c r="J20" s="5">
-        <v>2.4849810517496702</v>
-      </c>
-    </row>
-    <row r="21" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="5">
-        <v>4.0032255576288298</v>
-      </c>
-      <c r="J21" s="5">
-        <v>2.5185022214052299</v>
-      </c>
-    </row>
-    <row r="22" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="5">
-        <v>-0.83745886212716003</v>
-      </c>
-      <c r="J22" s="5">
-        <v>0.57420875782976</v>
-      </c>
-    </row>
-    <row r="23" spans="8:10" x14ac:dyDescent="0.4">
-      <c r="H23" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" s="5">
-        <v>3.4592452443360902</v>
-      </c>
-      <c r="J23" s="5">
-        <v>2.3505495200168101</v>
-      </c>
-    </row>
-    <row r="24" spans="8:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="6">
-        <v>-8.7785890968530893</v>
-      </c>
-      <c r="J24" s="6">
-        <v>1.3048157232211499</v>
+      <c r="I28" s="1">
+        <v>1.62947328168273</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2.0669637893201398</v>
+      </c>
+      <c r="L28" s="9">
+        <v>1.62947328168273</v>
+      </c>
+      <c r="M28" s="9">
+        <v>2.0669637893201398</v>
+      </c>
+    </row>
+    <row r="29" spans="7:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G29" s="3"/>
+      <c r="H29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2.6236387343948699</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2.02591530865491</v>
+      </c>
+      <c r="L29" s="9">
+        <v>2.6236387343948699</v>
+      </c>
+      <c r="M29" s="9">
+        <v>2.02591530865491</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="H12:J13"/>
+    <mergeCell ref="H21:J22"/>
     <mergeCell ref="H9:J10"/>
-    <mergeCell ref="H17:J18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
